--- a/Hamburgueria - PC/Excel/vendasDiarias.xlsx
+++ b/Hamburgueria - PC/Excel/vendasDiarias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamburgueria\Hamburgueria - PC\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD76B0B7-570C-49BF-AA16-7B9302420F3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAABC7BB-319B-40A6-B7A1-FF2A7A3D4F29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{672D4E54-BFAB-4FBA-8964-D4F57280EE18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{672D4E54-BFAB-4FBA-8964-D4F57280EE18}"/>
   </bookViews>
   <sheets>
     <sheet name="Todos" sheetId="5" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>CRÉDITO</t>
   </si>
   <si>
-    <t xml:space="preserve">VENDAS DIARIAS </t>
-  </si>
-  <si>
     <t>BIG BURGER</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>OBS: Imprimir tabela em modo paisagem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VENDAS DIÁRIAS </t>
   </si>
 </sst>
 </file>
@@ -223,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -231,33 +231,36 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -267,12 +270,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -299,9 +296,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -904,53 +898,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DB7E3F-04A2-42B9-B247-8EDD2228A763}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:B1048576"/>
+      <selection activeCell="G18" sqref="G18:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="26" customWidth="1"/>
-    <col min="3" max="5" width="15.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="8" customWidth="1"/>
+    <col min="3" max="5" width="15.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="23"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -958,13 +952,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G3" s="24">
+      <c r="G3" s="23">
         <f>SUM(C3:C1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G4" s="25"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G5" s="1" t="s">
@@ -972,13 +966,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <f>SUM(D3:D1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G7" s="25"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G8" s="1" t="s">
@@ -986,57 +980,60 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G9" s="24">
+      <c r="G9" s="23">
         <f>SUM(E3:E1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G10" s="25"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G13" s="12"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G15" s="13"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="15" t="s">
-        <v>17</v>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="16"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G18:G20"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -1085,55 +1082,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17504075-18C2-4715-B9D2-C8584C5ACFDA}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:B1048576"/>
+      <selection activeCell="G18" sqref="G18:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="18" style="7" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="23"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1141,13 +1138,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G3" s="24">
+      <c r="G3" s="23">
         <f>SUM(C3:C1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G4" s="25"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G5" s="1" t="s">
@@ -1155,13 +1152,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <f>SUM(D3:D1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G7" s="25"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G8" s="1" t="s">
@@ -1169,57 +1166,60 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G9" s="24">
+      <c r="G9" s="23">
         <f>SUM(E3:E1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G10" s="25"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G13" s="12"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G15" s="13"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="15" t="s">
-        <v>17</v>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="16"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G18:G20"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -1268,55 +1268,54 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0511D62C-53FF-4DB1-92F4-3C7FBEC93E66}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:B1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="18.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="23"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1324,13 +1323,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G3" s="24">
+      <c r="G3" s="23">
         <f>SUM(C3:C1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G4" s="25"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G5" s="1" t="s">
@@ -1338,13 +1337,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <f>SUM(D3:D1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G7" s="25"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G8" s="1" t="s">
@@ -1352,57 +1351,60 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G9" s="24">
+      <c r="G9" s="23">
         <f>SUM(E3:E1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G10" s="25"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G13" s="12"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G15" s="13"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="15" t="s">
-        <v>17</v>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="16"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G18:G20"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="G18:G19"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="G6:G7"/>

--- a/Hamburgueria - PC/Excel/vendasDiarias.xlsx
+++ b/Hamburgueria - PC/Excel/vendasDiarias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamburgueria\Hamburgueria - PC\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAABC7BB-319B-40A6-B7A1-FF2A7A3D4F29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFC310D-7D78-411F-82B6-86563C420F71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{672D4E54-BFAB-4FBA-8964-D4F57280EE18}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{672D4E54-BFAB-4FBA-8964-D4F57280EE18}"/>
   </bookViews>
   <sheets>
     <sheet name="Todos" sheetId="5" r:id="rId1"/>
@@ -223,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -234,9 +234,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -252,10 +249,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -901,50 +904,50 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:G20"/>
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="8" customWidth="1"/>
-    <col min="3" max="5" width="15.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="7" customWidth="1"/>
+    <col min="3" max="5" width="15.28515625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="22"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -952,13 +955,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G3" s="23">
+      <c r="G3" s="24">
         <f>SUM(C3:C1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G4" s="24"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G5" s="1" t="s">
@@ -966,13 +969,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="23">
+      <c r="G6" s="24">
         <f>SUM(D3:D1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G7" s="24"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G8" s="1" t="s">
@@ -980,13 +983,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G9" s="23">
+      <c r="G9" s="24">
         <f>SUM(E3:E1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G10" s="24"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G11" s="3" t="s">
@@ -994,39 +997,39 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G13" s="13"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G15" s="14"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="15"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="12"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="12"/>
+      <c r="G20" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1085,52 +1088,52 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:G20"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="18" style="10" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="22"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1138,13 +1141,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G3" s="23">
+      <c r="G3" s="24">
         <f>SUM(C3:C1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G4" s="24"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G5" s="1" t="s">
@@ -1152,13 +1155,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="23">
+      <c r="G6" s="24">
         <f>SUM(D3:D1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G7" s="24"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G8" s="1" t="s">
@@ -1166,13 +1169,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G9" s="23">
+      <c r="G9" s="24">
         <f>SUM(E3:E1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G10" s="24"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G11" s="3" t="s">
@@ -1180,39 +1183,39 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G13" s="13"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G15" s="14"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="15"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="12"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="12"/>
+      <c r="G20" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1271,51 +1274,51 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="18.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="10" customWidth="1"/>
+    <col min="4" max="5" width="18.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="22"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1323,13 +1326,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G3" s="23">
+      <c r="G3" s="24">
         <f>SUM(C3:C1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G4" s="24"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G5" s="1" t="s">
@@ -1337,13 +1340,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="23">
+      <c r="G6" s="24">
         <f>SUM(D3:D1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G7" s="24"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G8" s="1" t="s">
@@ -1351,13 +1354,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G9" s="23">
+      <c r="G9" s="24">
         <f>SUM(E3:E1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G10" s="24"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G11" s="3" t="s">
@@ -1365,39 +1368,39 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G13" s="13"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G15" s="14"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="15"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="12"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="12"/>
+      <c r="G20" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
